--- a/assets/default_corpus/model_type_one/evaluate 2.xlsx
+++ b/assets/default_corpus/model_type_one/evaluate 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CUJAE\DeepLearning\Software Required\Parser Proyect\assets\default_corpus\model_type_one\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D90A6D-F3DB-4C2E-A1AF-14388011793E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F8C247-2F0A-4038-8C9D-3303992F1906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{CE3A1A6B-7415-49B6-8F8D-6A02B855C26B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE3A1A6B-7415-49B6-8F8D-6A02B855C26B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t xml:space="preserve"> Joaquin Delgado e Santa Clara y Esperanza, reparto Parraga, Arroyo Naranjo, La Habana</t>
   </si>
   <si>
-    <t>Calle Maceo  # 61Alto entre Bertenati y Nazareno,PLAZA DE LA REVOLUCION,La Habana</t>
-  </si>
-  <si>
     <t>Destramoes  # 58 entre Luis esteves y Lacret, Santo Suarez,DIEZ DE OCTUBRE,La Habana</t>
   </si>
   <si>
@@ -114,27 +111,18 @@
     <t>Calle Gertrudis Oeste  # 459 E /  Anita y Goicuria Repto Sevillano,DIEZ DE OCTUBRE,La Habana</t>
   </si>
   <si>
-    <t>Avenida Santa Catalina e / Mayia Rodriguez  y La Sola,Edificio616,Apto 3,Reparto Santos Suarez,DIEZ DE OCTUBRE,La Habana</t>
-  </si>
-  <si>
     <t>Calle Pinar  # 8003 E / Santa Teresa y Collazo,Reparto Ponce,ARROYO NARANJO,La Habana</t>
   </si>
   <si>
     <t>Avenida Ciudamar  # 17521 e /  Calle 13 y Calle 15, Reparto Ciudamar,SAN MIGUEL DEL PADRON,La Habana</t>
   </si>
   <si>
-    <t>Calzada de 10 de Octubre  # 1155 apto1 e /  Santa Catalina y San Mariano,DIEZ DE OCTUBRE,La Habana</t>
-  </si>
-  <si>
     <t>Calle San Mariano  # 761 entre San Juan Bosco y Graciela apto 8, Vibora,DIEZ DE OCTUBRE,La Habana</t>
   </si>
   <si>
     <t>Calle 5ta B  #  9606 2 int,entre calle 96 y 98, Barrio Querejeta,PLAYA,La Habana</t>
   </si>
   <si>
-    <t>Calle 1No  17416 E / Calle A y Calle San Luis,Reparto Encanto,SAN MIGUEL DEL PADRON,La Habana</t>
-  </si>
-  <si>
     <t>Calle 9na  # 14 ,Apto 3 E / Calle E y Calle D,Barrio Lawton,DIEZ DE OCTUBRE,La Habana</t>
   </si>
   <si>
@@ -144,9 +132,6 @@
     <t>Ave Entrada E / Ave de los Ocujes y Ave  de la Ceiba Edificio 2 APTO 5 Reparto Santa Catalina,CERRO,La Habana</t>
   </si>
   <si>
-    <t>Sta Catalina e / Vento y San Juán Bosco ed 817 Y 819 apto 4,DIEZ DE OCTUBRE,La Habana</t>
-  </si>
-  <si>
     <t>Calle Camilo Cienfuegos, Finca San Juan  # 91, Poblado Bacuranao,GUANABACOA,La Habana</t>
   </si>
   <si>
@@ -180,10 +165,25 @@
     <t>67A No 11404 e 114 y 116 MARIANAO La Habana</t>
   </si>
   <si>
-    <t>Calle 308   1904A entre 19 y21 Reparto Santa Fe  PLAYA La Habana</t>
-  </si>
-  <si>
     <t>Calle 203 entre 290 y Prensa Latina, Poblado Pueblo del Chico, BOYEROS, La Habana</t>
+  </si>
+  <si>
+    <t>Calle Maceo  # 61 Alto entre Bertenati y Nazareno,PLAZA DE LA REVOLUCION,La Habana</t>
+  </si>
+  <si>
+    <t>Avenida Santa Catalina e / Mayia Rodriguez  y La Sola,Edificio 616,Apto 3,Reparto Santos Suarez,DIEZ DE OCTUBRE,La Habana</t>
+  </si>
+  <si>
+    <t>Calzada de 10 de Octubre  # 1155 apto 1 e /  Santa Catalina y San Mariano,DIEZ DE OCTUBRE,La Habana</t>
+  </si>
+  <si>
+    <t>Calle 1 No  17416 E / Calle A y Calle San Luis,Reparto Encanto,SAN MIGUEL DEL PADRON,La Habana</t>
+  </si>
+  <si>
+    <t>Sta Catalina e / Vento y San Juán Bosco ed 817 apto 4,DIEZ DE OCTUBRE,La Habana</t>
+  </si>
+  <si>
+    <t>Calle 308   1904A entre 19 y 21 Reparto Santa Fe  PLAYA La Habana</t>
   </si>
 </sst>
 </file>
@@ -235,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,11 +244,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04EBE9F-E917-492C-AF6B-0ED5EB213D61}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,209 +620,209 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/assets/default_corpus/model_type_one/evaluate 2.xlsx
+++ b/assets/default_corpus/model_type_one/evaluate 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CUJAE\DeepLearning\Software Required\Parser Proyect\assets\default_corpus\model_type_one\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F8C247-2F0A-4038-8C9D-3303992F1906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D3233B-F50A-47FF-A92E-57B1FA5D4036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE3A1A6B-7415-49B6-8F8D-6A02B855C26B}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{CE3A1A6B-7415-49B6-8F8D-6A02B855C26B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Direcciones Reales</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Ave Entrada E / Ave de los Ocujes y Ave  de la Ceiba Edificio 2 APTO 5 Reparto Santa Catalina,CERRO,La Habana</t>
-  </si>
-  <si>
-    <t>Calle Camilo Cienfuegos, Finca San Juan  # 91, Poblado Bacuranao,GUANABACOA,La Habana</t>
   </si>
   <si>
     <t>Aliados e/ Pasaje D y Central, San Miguel del Padrón, La Habana</t>
@@ -235,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,7 +241,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,9 +556,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04EBE9F-E917-492C-AF6B-0ED5EB213D61}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -667,7 +663,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -711,8 +707,8 @@
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>45</v>
+      <c r="A28" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
@@ -727,7 +723,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -737,7 +733,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -757,7 +753,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -791,18 +787,18 @@
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
@@ -818,11 +814,6 @@
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
